--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akahmad/Documents/DiskANN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C51E0A-9270-C941-A7EF-1057735450D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49EE57C-28A2-E842-BD90-60AD6CC584F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{6E9BC28B-1AB4-5F4F-A4A2-84F6C81B2EBE}"/>
   </bookViews>
@@ -1213,6 +1213,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1225,7 +1226,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1657,7 +1657,7 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1691,7 +1691,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>187</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>314</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1821,7 +1821,7 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>187</v>
       </c>
@@ -1853,7 +1853,7 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>314</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>176</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1951,7 +1951,7 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>260</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>314</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2081,7 +2081,7 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>187</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="22" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>314</v>
       </c>
@@ -2305,7 +2305,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2338,7 +2338,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2369,7 +2369,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>187</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2463,7 +2463,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>187</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>176</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2588,7 +2588,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -2619,7 +2619,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
         <v>187</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2713,7 +2713,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
@@ -2744,7 +2744,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>187</v>
       </c>
@@ -2775,52 +2775,52 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="8"/>
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="8"/>
     </row>
     <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="8"/>
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="8"/>
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="8"/>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="8"/>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="8"/>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="8"/>
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="8"/>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="8"/>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="8"/>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2935,7 +2935,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2968,7 +2968,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2999,7 +2999,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3030,7 +3030,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>187</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3124,7 +3124,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
@@ -3155,7 +3155,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>187</v>
       </c>
@@ -3247,7 +3247,7 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3280,7 +3280,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
@@ -3311,7 +3311,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
@@ -3342,7 +3342,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
         <v>187</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3436,7 +3436,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
@@ -3467,7 +3467,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
         <v>187</v>
       </c>
@@ -3544,7 +3544,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J30" sqref="J30:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3635,7 +3635,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3667,7 +3667,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3697,7 +3697,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3727,7 +3727,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3757,7 +3757,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3787,7 +3787,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -3845,7 +3845,7 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3877,7 +3877,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
@@ -3937,7 +3937,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -3967,7 +3967,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -3997,7 +3997,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>176</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4087,7 +4087,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
@@ -4117,7 +4117,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
@@ -4147,7 +4147,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
@@ -4177,7 +4177,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
@@ -4207,7 +4207,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
@@ -4265,7 +4265,7 @@
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4297,7 +4297,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
@@ -4327,7 +4327,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>19</v>
       </c>
@@ -4357,7 +4357,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
@@ -4387,7 +4387,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
@@ -4417,7 +4417,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
